--- a/va_facility_data_2025-02-20/Sarasota VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Sarasota%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Sarasota VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Sarasota%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rb1e8a2bff50e459381fd566bff5dbb9b"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R00d0284947de4485b31eef46e735f75e"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R59a682d69803488cbc4d96379e6e5a8f"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rb3646ac2289b44d083543cbfd45361a7"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R0e5925154fdf4c45bb8c0006585e760a"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rdcbe9c794a294bbc8a9dc1b20d7946e4"/>
   </x:sheets>
 </x:workbook>
 </file>
